--- a/Rekap/RekapIPM.xlsx
+++ b/Rekap/RekapIPM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faisol\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CVIDE\Rekap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC1E441-A0CB-4092-AF44-A8CCA85AD768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6423AE6A-6393-49C8-9CFC-0CA46FE4CCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{09BE31F3-3772-4CED-8D87-B174A4B82511}"/>
   </bookViews>

--- a/Rekap/RekapIPM.xlsx
+++ b/Rekap/RekapIPM.xlsx
@@ -126,7 +126,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,11 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -155,6 +160,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -165,7 +215,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,14 +231,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,6 +239,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,43 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -246,14 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -262,38 +291,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,13 +313,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,31 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,13 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,115 +469,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,26 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,8 +553,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,23 +588,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,20 +618,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,134 +653,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,20 +794,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,18 +1174,18 @@
         <v>6</v>
       </c>
       <c r="C2" s="5">
-        <v>0.57</v>
-      </c>
-      <c r="D2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="6">
         <v>0.72</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>0.71</v>
       </c>
-      <c r="F2" s="5">
-        <v>66.29</v>
-      </c>
-      <c r="G2" s="6"/>
+      <c r="F2" s="6">
+        <v>67.43</v>
+      </c>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="15.75" spans="1:7">
       <c r="A3" s="3">
@@ -1187,18 +1195,18 @@
         <v>7</v>
       </c>
       <c r="C3" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="D3" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="D3" s="6">
         <v>0.68</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>0.68</v>
       </c>
-      <c r="F3" s="5">
-        <v>65.58</v>
-      </c>
-      <c r="G3" s="6"/>
+      <c r="F3" s="6">
+        <v>66.63</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="15.75" spans="1:7">
       <c r="A4" s="3">
@@ -1208,18 +1216,18 @@
         <v>8</v>
       </c>
       <c r="C4" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="D4" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="D4" s="6">
         <v>0.71</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>0.71</v>
       </c>
-      <c r="F4" s="5">
-        <v>68.58</v>
-      </c>
-      <c r="G4" s="6"/>
+      <c r="F4" s="6">
+        <v>69.64</v>
+      </c>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" ht="15.75" spans="1:7">
       <c r="A5" s="3">
@@ -1229,18 +1237,18 @@
         <v>9</v>
       </c>
       <c r="C5" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="D5" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="D5" s="6">
         <v>0.56</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>0.67</v>
       </c>
-      <c r="F5" s="5">
-        <v>56.86</v>
-      </c>
-      <c r="G5" s="6"/>
+      <c r="F5" s="6">
+        <v>57.62</v>
+      </c>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" ht="15.75" spans="1:7">
       <c r="A6" s="3">
@@ -1250,18 +1258,18 @@
         <v>10</v>
       </c>
       <c r="C6" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="D6" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="D6" s="6">
         <v>0.71</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>0.73</v>
       </c>
-      <c r="F6" s="5">
-        <v>71.32</v>
-      </c>
-      <c r="G6" s="6"/>
+      <c r="F6" s="6">
+        <v>71.99</v>
+      </c>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" ht="15.75" spans="1:7">
       <c r="A7" s="3">
@@ -1271,18 +1279,18 @@
         <v>11</v>
       </c>
       <c r="C7" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="D7" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="D7" s="6">
         <v>0.66</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>0.72</v>
       </c>
-      <c r="F7" s="5">
-        <v>65.44</v>
-      </c>
-      <c r="G7" s="6"/>
+      <c r="F7" s="6">
+        <v>66.54</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" ht="15.75" spans="1:7">
       <c r="A8" s="3">
@@ -1292,18 +1300,18 @@
         <v>12</v>
       </c>
       <c r="C8" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D8" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="D8" s="6">
         <v>0.66</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>0.7</v>
       </c>
-      <c r="F8" s="5">
-        <v>65.2</v>
-      </c>
-      <c r="G8" s="6"/>
+      <c r="F8" s="6">
+        <v>66.27</v>
+      </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" ht="15.75" spans="1:7">
       <c r="A9" s="3">
@@ -1313,18 +1321,18 @@
         <v>13</v>
       </c>
       <c r="C9" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D9" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="D9" s="6">
         <v>0.75</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>0.73</v>
       </c>
-      <c r="F9" s="5">
-        <v>68.99</v>
-      </c>
-      <c r="G9" s="6"/>
+      <c r="F9" s="6">
+        <v>70.13</v>
+      </c>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" ht="15.75" spans="1:7">
       <c r="A10" s="3">
@@ -1334,18 +1342,18 @@
         <v>14</v>
       </c>
       <c r="C10" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="D10" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="D10" s="6">
         <v>0.7</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>0.74</v>
       </c>
-      <c r="F10" s="5">
-        <v>70.62</v>
-      </c>
-      <c r="G10" s="6"/>
+      <c r="F10" s="6">
+        <v>71.64</v>
+      </c>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" ht="15.75" spans="1:7">
       <c r="A11" s="3">
@@ -1355,18 +1363,18 @@
         <v>15</v>
       </c>
       <c r="C11" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D11" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="D11" s="6">
         <v>0.65</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>0.73</v>
       </c>
-      <c r="F11" s="5">
-        <v>65.78</v>
-      </c>
-      <c r="G11" s="6"/>
+      <c r="F11" s="6">
+        <v>66.86</v>
+      </c>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" ht="15.75" spans="1:7">
       <c r="A12" s="3">
@@ -1376,18 +1384,18 @@
         <v>16</v>
       </c>
       <c r="C12" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="D12" s="5">
+        <v>0.56</v>
+      </c>
+      <c r="D12" s="6">
         <v>0.67</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>0.74</v>
       </c>
-      <c r="F12" s="5">
-        <v>64.45</v>
-      </c>
-      <c r="G12" s="6"/>
+      <c r="F12" s="6">
+        <v>65.23</v>
+      </c>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" ht="15.75" spans="1:7">
       <c r="A13" s="3">
@@ -1397,18 +1405,18 @@
         <v>17</v>
       </c>
       <c r="C13" s="5">
-        <v>0.56</v>
-      </c>
-      <c r="D13" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="D13" s="6">
         <v>0.65</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>0.7</v>
       </c>
-      <c r="F13" s="5">
-        <v>63.39</v>
-      </c>
-      <c r="G13" s="6"/>
+      <c r="F13" s="6">
+        <v>64.5</v>
+      </c>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" ht="15.75" spans="1:7">
       <c r="A14" s="3">
@@ -1418,18 +1426,18 @@
         <v>18</v>
       </c>
       <c r="C14" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="D14" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D14" s="6">
         <v>0.63</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>0.69</v>
       </c>
-      <c r="F14" s="5">
-        <v>66.28</v>
-      </c>
-      <c r="G14" s="6"/>
+      <c r="F14" s="6">
+        <v>67.26</v>
+      </c>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" ht="15.75" spans="1:7">
       <c r="A15" s="3">
@@ -1439,18 +1447,18 @@
         <v>19</v>
       </c>
       <c r="C15" s="5">
-        <v>0.56</v>
-      </c>
-      <c r="D15" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="D15" s="6">
         <v>0.68</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>0.72</v>
       </c>
-      <c r="F15" s="5">
-        <v>64.96</v>
-      </c>
-      <c r="G15" s="6"/>
+      <c r="F15" s="6">
+        <v>66.1</v>
+      </c>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" ht="15.75" spans="1:7">
       <c r="A16" s="3">
@@ -1460,18 +1468,18 @@
         <v>20</v>
       </c>
       <c r="C16" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="D16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="6">
         <v>0.6</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>0.76</v>
       </c>
-      <c r="F16" s="5">
-        <v>60.26</v>
-      </c>
-      <c r="G16" s="6"/>
+      <c r="F16" s="6">
+        <v>61.09</v>
+      </c>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" ht="15.75" spans="1:7">
       <c r="A17" s="3">
@@ -1481,18 +1489,18 @@
         <v>21</v>
       </c>
       <c r="C17" s="5">
-        <v>0.61</v>
-      </c>
-      <c r="D17" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="D17" s="6">
         <v>0.68</v>
       </c>
-      <c r="E17" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="F17" s="5">
-        <v>66.53</v>
-      </c>
-      <c r="G17" s="6"/>
+      <c r="E17" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F17" s="6">
+        <v>71.27</v>
+      </c>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" ht="15.75" spans="1:7">
       <c r="A18" s="3">
@@ -1502,18 +1510,18 @@
         <v>22</v>
       </c>
       <c r="C18" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="D18" s="6">
         <v>0.62</v>
       </c>
-      <c r="D18" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>0.76</v>
       </c>
-      <c r="F18" s="5">
-        <v>66.35</v>
-      </c>
-      <c r="G18" s="6"/>
+      <c r="F18" s="6">
+        <v>67.4</v>
+      </c>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" ht="15.75" spans="1:7">
       <c r="A19" s="3">
@@ -1523,18 +1531,18 @@
         <v>23</v>
       </c>
       <c r="C19" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="D19" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D19" s="6">
         <v>0.75</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>0.73</v>
       </c>
-      <c r="F19" s="5">
-        <v>71.58</v>
-      </c>
-      <c r="G19" s="6"/>
+      <c r="F19" s="6">
+        <v>72.63</v>
+      </c>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" ht="15.75" spans="1:7">
       <c r="A20" s="3">
@@ -1544,18 +1552,18 @@
         <v>24</v>
       </c>
       <c r="C20" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="D20" s="5">
+        <v>0.56</v>
+      </c>
+      <c r="D20" s="6">
         <v>0.72</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <v>0.71</v>
       </c>
-      <c r="F20" s="5">
-        <v>65.11</v>
-      </c>
-      <c r="G20" s="6"/>
+      <c r="F20" s="6">
+        <v>65.9</v>
+      </c>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" ht="15.75" spans="1:7">
       <c r="A21" s="3">
@@ -1565,18 +1573,18 @@
         <v>25</v>
       </c>
       <c r="C21" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D21" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="D21" s="6">
         <v>0.75</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="6">
         <v>0.7</v>
       </c>
-      <c r="F21" s="5">
-        <v>68.04</v>
-      </c>
-      <c r="G21" s="6"/>
+      <c r="F21" s="6">
+        <v>69.15</v>
+      </c>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" ht="15.75" spans="1:7">
       <c r="A22" s="3">
@@ -1586,18 +1594,18 @@
         <v>26</v>
       </c>
       <c r="C22" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="D22" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="D22" s="6">
         <v>0.66</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <v>0.77</v>
       </c>
-      <c r="F22" s="5">
-        <v>62.91</v>
-      </c>
-      <c r="G22" s="6"/>
+      <c r="F22" s="6">
+        <v>63.75</v>
+      </c>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" ht="15.75" spans="1:7">
       <c r="A23" s="3">
@@ -1607,18 +1615,18 @@
         <v>27</v>
       </c>
       <c r="C23" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D23" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="D23" s="6">
         <v>0.67</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <v>0.72</v>
       </c>
-      <c r="F23" s="5">
-        <v>66.14</v>
-      </c>
-      <c r="G23" s="6"/>
+      <c r="F23" s="6">
+        <v>67.23</v>
+      </c>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" ht="15.75" spans="1:7">
       <c r="A24" s="3">
@@ -1628,18 +1636,18 @@
         <v>28</v>
       </c>
       <c r="C24" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="D24" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="D24" s="6">
         <v>0.68</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <v>0.69</v>
       </c>
-      <c r="F24" s="5">
-        <v>66.96</v>
-      </c>
-      <c r="G24" s="6"/>
+      <c r="F24" s="6">
+        <v>67.99</v>
+      </c>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" ht="15.75" spans="1:7">
       <c r="A25" s="3">
@@ -1649,57 +1657,57 @@
         <v>29</v>
       </c>
       <c r="C25" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D25" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="D25" s="6">
         <v>0.52</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="6">
         <v>0.72</v>
       </c>
-      <c r="F25" s="5">
-        <v>60.78</v>
-      </c>
-      <c r="G25" s="6"/>
+      <c r="F25" s="6">
+        <v>61.78</v>
+      </c>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" ht="15.75" spans="1:7">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="D26" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="D26" s="6">
         <v>0.63</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="6">
         <v>0.73</v>
       </c>
-      <c r="F26" s="5">
-        <v>65.1</v>
-      </c>
-      <c r="G26" s="6"/>
+      <c r="F26" s="6">
+        <v>65.81</v>
+      </c>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" ht="15.75" spans="1:6">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <v>0.63</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <v>0.78</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="9">
         <v>0.74</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="11">
         <v>71.37</v>
       </c>
     </row>

--- a/Rekap/RekapIPM.xlsx
+++ b/Rekap/RekapIPM.xlsx
@@ -120,13 +120,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,11 +140,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -167,6 +162,135 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -174,135 +298,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -313,91 +308,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,13 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,67 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +530,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -554,17 +569,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -594,11 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,166 +627,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -797,20 +792,20 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1537,10 +1532,10 @@
         <v>0.75</v>
       </c>
       <c r="E19" s="6">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F19" s="6">
-        <v>72.63</v>
+        <v>71.96</v>
       </c>
       <c r="G19" s="7"/>
     </row>

--- a/Rekap/RekapIPM.xlsx
+++ b/Rekap/RekapIPM.xlsx
@@ -120,11 +120,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -155,8 +155,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +167,21 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,6 +193,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,77 +246,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,6 +262,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -277,17 +285,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,26 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -569,7 +549,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,9 +571,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,151 +618,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -795,7 +795,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1253,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="D6" s="6">
         <v>0.71</v>
@@ -1262,7 +1262,7 @@
         <v>0.73</v>
       </c>
       <c r="F6" s="6">
-        <v>71.99</v>
+        <v>71.32</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -1487,13 +1487,13 @@
         <v>0.71</v>
       </c>
       <c r="D17" s="6">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E17" s="6">
         <v>0.75</v>
       </c>
       <c r="F17" s="6">
-        <v>71.27</v>
+        <v>71.96</v>
       </c>
       <c r="G17" s="7"/>
     </row>
@@ -1526,7 +1526,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="5">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="D19" s="6">
         <v>0.75</v>
@@ -1535,7 +1535,7 @@
         <v>0.71</v>
       </c>
       <c r="F19" s="6">
-        <v>71.96</v>
+        <v>70.92</v>
       </c>
       <c r="G19" s="7"/>
     </row>

--- a/Rekap/RekapIPM.xlsx
+++ b/Rekap/RekapIPM.xlsx
@@ -120,11 +120,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -155,6 +155,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -170,15 +185,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -194,9 +202,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,22 +254,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,7 +278,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,59 +292,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -308,43 +308,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,139 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,17 +530,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,7 +543,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,26 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -600,6 +574,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,157 +619,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -795,7 +795,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1529,13 +1529,13 @@
         <v>0.67</v>
       </c>
       <c r="D19" s="6">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="E19" s="6">
         <v>0.71</v>
       </c>
       <c r="F19" s="6">
-        <v>70.92</v>
+        <v>67.62</v>
       </c>
       <c r="G19" s="7"/>
     </row>
